--- a/models/toy/inst_estimation/totalflux_contribMat.xlsx
+++ b/models/toy/inst_estimation/totalflux_contribMat.xlsx
@@ -597,97 +597,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002023361517332808</v>
+        <v>0.003816446910453924</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004297541707564523</v>
+        <v>0.0009184772660171081</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0006040550841646264</v>
+        <v>0.001340095958043906</v>
       </c>
       <c r="E2" t="n">
-        <v>8.389743893972696e-09</v>
+        <v>1.424932756379889e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>5.381974601299658e-08</v>
+        <v>1.812596280010206e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>7.117197628725079e-12</v>
+        <v>2.297585820701277e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06137629752532118</v>
+        <v>0.02457530269296265</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01357227763824544</v>
+        <v>0.007918219843555209</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01930810082828084</v>
+        <v>0.01244473711807324</v>
       </c>
       <c r="K2" t="n">
-        <v>2.602361514806144e-05</v>
+        <v>0.001120486222880649</v>
       </c>
       <c r="L2" t="n">
-        <v>6.649872460819649e-06</v>
+        <v>0.0001035838867956089</v>
       </c>
       <c r="M2" t="n">
-        <v>9.759450769073836e-10</v>
+        <v>1.536625342293122e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1556945571576351</v>
+        <v>0.01025747062702243</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06792201341547122</v>
+        <v>0.03543484420346305</v>
       </c>
       <c r="P2" t="n">
-        <v>0.1094864056854624</v>
+        <v>0.06769795001641737</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.02243751339162373</v>
+        <v>0.07046765132001143</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002113670407401511</v>
+        <v>0.006310022675344371</v>
       </c>
       <c r="S2" t="n">
-        <v>1.341166362727139e-06</v>
+        <v>5.096253608676356e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03507193714046036</v>
+        <v>0.02680904659869605</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02828992229874071</v>
+        <v>0.03759374401519867</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0444839411970489</v>
+        <v>0.04733750905312697</v>
       </c>
       <c r="W2" t="n">
-        <v>0.1740011887124854</v>
+        <v>0.1723255406118731</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01948824521149018</v>
+        <v>0.02170948132728107</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.309308802287166e-05</v>
+        <v>0.0001621828073093329</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.05371454276050678</v>
+        <v>0.1497693723891626</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.03211705512825482</v>
+        <v>0.04495516917907684</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.01146885347613207</v>
+        <v>0.01795415700236087</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.651350272065208e-06</v>
+        <v>0.005887076843752416</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.001485152955027968</v>
+        <v>0.000312574583468033</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002988900674170687</v>
+        <v>0.0003263981492723664</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.144483599329239</v>
+        <v>0.2324312823224671</v>
       </c>
     </row>
     <row r="3">
@@ -697,97 +697,97 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002023361415566972</v>
+        <v>0.003816446910457746</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004297541497936825</v>
+        <v>0.0009184772660180544</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0006040550549845731</v>
+        <v>0.001340095958044936</v>
       </c>
       <c r="E3" t="n">
-        <v>8.389749201372052e-09</v>
+        <v>1.424932756378649e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>5.381974739347306e-08</v>
+        <v>1.812596280009198e-06</v>
       </c>
       <c r="G3" t="n">
-        <v>7.117197798650359e-12</v>
+        <v>2.297585820699941e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06137629575486872</v>
+        <v>0.0245753026929795</v>
       </c>
       <c r="I3" t="n">
-        <v>0.013572277274927</v>
+        <v>0.007918219843567725</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01930810032360226</v>
+        <v>0.01244473711808771</v>
       </c>
       <c r="K3" t="n">
-        <v>2.602361685214379e-05</v>
+        <v>0.001120486222879716</v>
       </c>
       <c r="L3" t="n">
-        <v>6.649872619338363e-06</v>
+        <v>0.0001035838867955509</v>
       </c>
       <c r="M3" t="n">
-        <v>9.759450994877604e-10</v>
+        <v>1.536625342292231e-08</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1556945489890034</v>
+        <v>0.01025747062709203</v>
       </c>
       <c r="O3" t="n">
-        <v>0.06792201153532361</v>
+        <v>0.03543484420351507</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1094864030796734</v>
+        <v>0.06769795001657598</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.02243751404975843</v>
+        <v>0.07046765131995252</v>
       </c>
       <c r="R3" t="n">
-        <v>0.002113670462231894</v>
+        <v>0.006310022675339456</v>
       </c>
       <c r="S3" t="n">
-        <v>1.341166397000914e-06</v>
+        <v>5.096253608672238e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03507194413692643</v>
+        <v>0.02680904659844164</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02828992086827869</v>
+        <v>0.03759374401532316</v>
       </c>
       <c r="V3" t="n">
-        <v>0.04448393923649704</v>
+        <v>0.04733750905318397</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1740011948203136</v>
+        <v>0.1723255406116359</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01948824585777343</v>
+        <v>0.02170948132725687</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.309309081979583e-05</v>
+        <v>0.0001621828073091803</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.05371453530822107</v>
+        <v>0.1497693723896597</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03211705474667561</v>
+        <v>0.04495516917909391</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01146885282728427</v>
+        <v>0.01795415700240145</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.651329512271399e-06</v>
+        <v>0.005887076843806079</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.001485153214840676</v>
+        <v>0.0003125745834613657</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0002988900858961991</v>
+        <v>0.0003263981492713747</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1444835972026594</v>
+        <v>0.2324312823225808</v>
       </c>
     </row>
     <row r="4">
@@ -797,97 +797,97 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.007092789289946381</v>
+        <v>0.008005961566373484</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0014088663921218</v>
+        <v>0.001534163580740621</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001938556116382123</v>
+        <v>0.002086160060275118</v>
       </c>
       <c r="E4" t="n">
-        <v>5.617852228152626e-06</v>
+        <v>1.543716967627793e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>7.927518192080729e-08</v>
+        <v>4.850602530286452e-07</v>
       </c>
       <c r="G4" t="n">
-        <v>9.202648782466082e-12</v>
+        <v>5.865305758891648e-11</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006438164002689682</v>
+        <v>0.0585410292475217</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0009690157062451508</v>
+        <v>0.01002310542885123</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001209123324590537</v>
+        <v>0.01312131294096498</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0001309075338620322</v>
+        <v>0.000488290226572279</v>
       </c>
       <c r="L4" t="n">
-        <v>8.186764916707048e-06</v>
+        <v>2.631384826434223e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>1.153781498518685e-09</v>
+        <v>3.817070681060993e-09</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0184387005622015</v>
+        <v>0.199817247610114</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000634641533767704</v>
+        <v>0.01779258857168666</v>
       </c>
       <c r="P4" t="n">
-        <v>0.003028955091225771</v>
+        <v>0.01915225772467005</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.02773910966153379</v>
+        <v>0.01848917457718965</v>
       </c>
       <c r="R4" t="n">
-        <v>0.002330861358288187</v>
+        <v>0.001458803030729461</v>
       </c>
       <c r="S4" t="n">
-        <v>1.410384968226084e-06</v>
+        <v>1.122533030155338e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2589360601819171</v>
+        <v>0.06880513647487201</v>
       </c>
       <c r="U4" t="n">
-        <v>4.192411366420964e-05</v>
+        <v>0.0005525793668040465</v>
       </c>
       <c r="V4" t="n">
-        <v>0.0003788340654577067</v>
+        <v>0.001300872092994791</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1562462516100453</v>
+        <v>0.02120831596538764</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0170298550606603</v>
+        <v>0.00271791910777189</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.131879698174562e-05</v>
+        <v>2.468403421965914e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.349581643153251</v>
+        <v>0.396355023338754</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02847476419000616</v>
+        <v>0.01325960379255548</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.01374567972107364</v>
+        <v>0.01118016061892909</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.0650601838087403</v>
+        <v>0.09672739831662404</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.003151587479058647</v>
+        <v>0.008828186255960097</v>
       </c>
       <c r="AE4" t="n">
-        <v>3.528747089339671e-05</v>
+        <v>1.37788237315022e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0358617908706526</v>
+        <v>0.02847288355727807</v>
       </c>
     </row>
     <row r="5">
@@ -897,97 +897,97 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.002298955086921829</v>
+        <v>1.264172661508026e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004460049848588758</v>
+        <v>4.966349167268359e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0006089666921880791</v>
+        <v>2.888774176151704e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>3.41309722345535e-06</v>
+        <v>2.163744302740871e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>9.034964208839485e-08</v>
+        <v>1.673931365763846e-06</v>
       </c>
       <c r="G5" t="n">
-        <v>1.089191580767752e-11</v>
+        <v>2.094331167075839e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008695215433160827</v>
+        <v>0.0002803292246209657</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0003579430515398452</v>
+        <v>9.573162468869423e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005938431281916456</v>
+        <v>0.0003220723940074238</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001129425910201064</v>
+        <v>0.001200293643513723</v>
       </c>
       <c r="L5" t="n">
-        <v>9.832790824354978e-06</v>
+        <v>9.429380190793072e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>1.402930312844085e-09</v>
+        <v>1.390293166185005e-08</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001668583429003574</v>
+        <v>0.02606442587228198</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01320078066148867</v>
+        <v>0.003760404906595632</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02673669614414635</v>
+        <v>0.01179061100550676</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03327427872029797</v>
+        <v>0.06472100759039723</v>
       </c>
       <c r="R5" t="n">
-        <v>0.002895930091770995</v>
+        <v>0.005600276350312275</v>
       </c>
       <c r="S5" t="n">
-        <v>1.778797472887072e-06</v>
+        <v>4.466018189449944e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2098765593513013</v>
+        <v>0.06218879877540875</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004443940655624859</v>
+        <v>0.01492649269938281</v>
       </c>
       <c r="V5" t="n">
-        <v>0.008514591980853369</v>
+        <v>0.01744377281132783</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2075128622307446</v>
+        <v>0.1318519803319705</v>
       </c>
       <c r="X5" t="n">
-        <v>0.02282627334421297</v>
+        <v>0.01667001079874902</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0001090111307984395</v>
+        <v>0.000129938270854755</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.2889073036144335</v>
+        <v>0.3532970309932475</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03798029089965765</v>
+        <v>0.04267868541630575</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01664420145758689</v>
+        <v>0.02179696000275698</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0382863682507026</v>
+        <v>0.04593403749381567</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.0008307641734258237</v>
+        <v>0.001327514744275562</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001185651571303635</v>
+        <v>0.0001122655115774316</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.08086990950496534</v>
+        <v>0.1776692430501002</v>
       </c>
     </row>
     <row r="6">
@@ -997,97 +997,97 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002298954972494951</v>
+        <v>1.264172661508026e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004460049622203001</v>
+        <v>4.966349167268413e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006089666610809325</v>
+        <v>2.88877417615173e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>3.413097129619587e-06</v>
+        <v>2.163744302743654e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>9.034964107622123e-08</v>
+        <v>1.673931365765781e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>1.08919156939388e-11</v>
+        <v>2.094331167078235e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008695217725346731</v>
+        <v>0.0002803292246252394</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0003579431168537135</v>
+        <v>9.573162468869454e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000593843226761092</v>
+        <v>0.0003220723940051339</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001129425884343602</v>
+        <v>0.001200293643515381</v>
       </c>
       <c r="L6" t="n">
-        <v>9.832790720968442e-06</v>
+        <v>9.429380190805661e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>1.402930298585649e-09</v>
+        <v>1.390293166186751e-08</v>
       </c>
       <c r="N6" t="n">
-        <v>0.001668584215463521</v>
+        <v>0.02606442587236442</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01320078152718511</v>
+        <v>0.003760404906595632</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0267366975397576</v>
+        <v>0.01179061100550676</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.03327427826054833</v>
+        <v>0.06472100759047843</v>
       </c>
       <c r="R6" t="n">
-        <v>0.002895930056887686</v>
+        <v>0.005600276350320635</v>
       </c>
       <c r="S6" t="n">
-        <v>1.778797451689926e-06</v>
+        <v>4.466018189455213e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2098765466646914</v>
+        <v>0.0621887987759181</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004443941170546225</v>
+        <v>0.01492649269938282</v>
       </c>
       <c r="V6" t="n">
-        <v>0.008514592777953835</v>
+        <v>0.01744377281126039</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2075128583489148</v>
+        <v>0.1318519803323414</v>
       </c>
       <c r="X6" t="n">
-        <v>0.02282627294437436</v>
+        <v>0.01667001079879846</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.0001090111291192819</v>
+        <v>0.0001299382708549823</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2889073161921997</v>
+        <v>0.3532970309926404</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03798029139111697</v>
+        <v>0.04267868541630575</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01664420209696457</v>
+        <v>0.02179696000271928</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.0382863703814547</v>
+        <v>0.04593403749359678</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0008307642998646033</v>
+        <v>0.001327514744256957</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.0001185651500291282</v>
+        <v>0.0001122655115781079</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.08086991143534095</v>
+        <v>0.177669243050238</v>
       </c>
     </row>
     <row r="7">
@@ -1097,97 +1097,97 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0006061256605025681</v>
+        <v>0.00134086753619318</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001112844074646912</v>
+        <v>0.0003703576400329973</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001491561680851485</v>
+        <v>0.0005611929633556441</v>
       </c>
       <c r="E7" t="n">
-        <v>2.354953237212837e-06</v>
+        <v>2.288723890729072e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.020121152912451e-07</v>
+        <v>2.296007241033888e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>1.258152669932505e-11</v>
+        <v>2.894311196013347e-10</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006810887675106189</v>
+        <v>0.006569640082914892</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001877871212798721</v>
+        <v>0.003258967911838381</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002841019360868077</v>
+        <v>0.005599662904325524</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0001139373005185348</v>
+        <v>0.001541440355147809</v>
       </c>
       <c r="L7" t="n">
-        <v>1.151066716058494e-05</v>
+        <v>0.0001314313161391367</v>
       </c>
       <c r="M7" t="n">
-        <v>1.651893759617406e-09</v>
+        <v>1.943762476884219e-08</v>
       </c>
       <c r="N7" t="n">
-        <v>0.006385684205353394</v>
+        <v>0.01085356973305555</v>
       </c>
       <c r="O7" t="n">
-        <v>0.02043346950055099</v>
+        <v>0.0136798250837638</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03980659702822929</v>
+        <v>0.03319947811226631</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0405805979525404</v>
+        <v>0.09568714529518803</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003554489286478035</v>
+        <v>0.008360205128265337</v>
       </c>
       <c r="S7" t="n">
-        <v>2.206158575450484e-06</v>
+        <v>6.661277382530931e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3182321308023508</v>
+        <v>0.1920954963396725</v>
       </c>
       <c r="U7" t="n">
-        <v>0.004589958597507612</v>
+        <v>0.01605998412746347</v>
       </c>
       <c r="V7" t="n">
-        <v>0.00952277275586174</v>
+        <v>0.0198546723025147</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2906675929232814</v>
+        <v>0.2623976088337793</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0317407803259338</v>
+        <v>0.03194145144029197</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0001478462942773201</v>
+        <v>0.0002235707752482019</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.07788755269864865</v>
+        <v>0.05284528112105665</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.03539612879300488</v>
+        <v>0.04100119320631404</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.009251131249112846</v>
+        <v>0.009997921406590646</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.002063355238731893</v>
+        <v>6.219988847425504e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.000970943785123948</v>
+        <v>0.002597643254170403</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0003803348125210113</v>
+        <v>0.0005819198766934175</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.09586241520909212</v>
+        <v>0.1892113823574226</v>
       </c>
     </row>
     <row r="8">
@@ -1197,97 +1197,97 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006062129619498839</v>
+        <v>0.001340555431368202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001113013005235409</v>
+        <v>0.000370283484472497</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001491792068715135</v>
+        <v>0.0005610853941624433</v>
       </c>
       <c r="E8" t="n">
-        <v>2.355042422150999e-06</v>
+        <v>2.288786747968693e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>1.020121519643835e-07</v>
+        <v>2.296004109266885e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>1.258151205955926e-11</v>
+        <v>2.894304992295895e-10</v>
       </c>
       <c r="H8" t="n">
-        <v>0.006810322533903714</v>
+        <v>0.006567935921080853</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0018777366473787</v>
+        <v>0.003258422252102103</v>
       </c>
       <c r="J8" t="n">
-        <v>0.002840824132605971</v>
+        <v>0.005598818581365774</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001139382282546489</v>
+        <v>0.001541448972871457</v>
       </c>
       <c r="L8" t="n">
-        <v>1.151064360145288e-05</v>
+        <v>0.0001314309182840053</v>
       </c>
       <c r="M8" t="n">
-        <v>1.651889746674501e-09</v>
+        <v>1.943755984017461e-08</v>
       </c>
       <c r="N8" t="n">
-        <v>0.006385294603162192</v>
+        <v>0.01085539279476925</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02043307624684202</v>
+        <v>0.01367870936747406</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03980592063653235</v>
+        <v>0.03319734917867809</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.04058040637551173</v>
+        <v>0.09568628298659969</v>
       </c>
       <c r="R8" t="n">
-        <v>0.003554471038231363</v>
+        <v>0.008360121718845476</v>
       </c>
       <c r="S8" t="n">
-        <v>2.206145773582659e-06</v>
+        <v>6.661211489200292e-06</v>
       </c>
       <c r="T8" t="n">
-        <v>0.3182263849539692</v>
+        <v>0.1920819179092803</v>
       </c>
       <c r="U8" t="n">
-        <v>0.004589988331142394</v>
+        <v>0.01606039296036436</v>
       </c>
       <c r="V8" t="n">
-        <v>0.009522782270352517</v>
+        <v>0.01985504852213411</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2906637072076437</v>
+        <v>0.2623879930030448</v>
       </c>
       <c r="X8" t="n">
-        <v>0.03174037000059678</v>
+        <v>0.03194038628600845</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0001478446078340642</v>
+        <v>0.0002235654927626924</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.07789853106093754</v>
+        <v>0.05286748185351851</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.03539662030757208</v>
+        <v>0.04100279757484859</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.009251663114757083</v>
+        <v>0.009999422802596528</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.002064347680124845</v>
+        <v>6.349429009988021e-06</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0009706855052768058</v>
+        <v>0.002596648159936982</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.0003803141680119491</v>
+        <v>0.0005818603699718137</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.09586214007219002</v>
+        <v>0.189216427166576</v>
       </c>
     </row>
     <row r="9">
@@ -1297,97 +1297,97 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007092789321082793</v>
+        <v>0.008005961578339806</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00140886639836211</v>
+        <v>0.001534163583081304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001938556124993461</v>
+        <v>0.002086160063480103</v>
       </c>
       <c r="E9" t="n">
-        <v>5.617852245498679e-06</v>
+        <v>1.543716968973624e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>7.927518202418693e-08</v>
+        <v>4.850602532738004e-07</v>
       </c>
       <c r="G9" t="n">
-        <v>9.202648793410295e-12</v>
+        <v>5.865305761769951e-11</v>
       </c>
       <c r="H9" t="n">
-        <v>0.00643816410798417</v>
+        <v>0.05854102934994441</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0009690157245160888</v>
+        <v>0.01002310544747319</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001209123348547784</v>
+        <v>0.01312131296585041</v>
       </c>
       <c r="K9" t="n">
-        <v>0.000130907534246909</v>
+        <v>0.0004882902269500064</v>
       </c>
       <c r="L9" t="n">
-        <v>8.186764926609603e-06</v>
+        <v>2.63138482791274e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.153781499848365e-09</v>
+        <v>3.817070683163593e-09</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01843870099841684</v>
+        <v>0.1998172481836647</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0006346415005103742</v>
+        <v>0.01779258863927367</v>
       </c>
       <c r="P9" t="n">
-        <v>0.003028955007747461</v>
+        <v>0.01915225780437108</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02773910971148038</v>
+        <v>0.0184891745988536</v>
       </c>
       <c r="R9" t="n">
-        <v>0.002330861361795989</v>
+        <v>0.001458803032287394</v>
       </c>
       <c r="S9" t="n">
-        <v>1.410384970327857e-06</v>
+        <v>1.1225330312564e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2589360623500075</v>
+        <v>0.06880513699596304</v>
       </c>
       <c r="U9" t="n">
-        <v>4.192410515218786e-05</v>
+        <v>0.0005525793806084941</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0003788340365793749</v>
+        <v>0.0013008721167946</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1562462520478456</v>
+        <v>0.02120831604655484</v>
       </c>
       <c r="X9" t="n">
-        <v>0.01702985510476815</v>
+        <v>0.00271791911671068</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.13187971598443e-05</v>
+        <v>2.468403427032042e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.3495816407093618</v>
+        <v>0.3963550220369417</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.028474764099849</v>
+        <v>0.01325960376341723</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.01374567961667911</v>
+        <v>0.01118016057364305</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.06506018332860555</v>
+        <v>0.096727398016972</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.003151587438178567</v>
+        <v>0.008828186221031516</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.528747148131515e-05</v>
+        <v>1.377882354586539e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.03586179062432273</v>
+        <v>0.0284728834405675</v>
       </c>
     </row>
   </sheetData>
